--- a/app/results/classification_results.xlsx
+++ b/app/results/classification_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Key Sections</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>Weak Alignment</t>
   </si>
 </sst>
 </file>
@@ -117,28 +120,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -433,9 +415,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -453,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>46.25</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>32.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>46.25</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>32.5</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>46.25</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>32.5</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>46.25</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>32.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>130</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +490,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -526,21 +505,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:C6">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:C7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:C8">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(A8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/results/classification_results.xlsx
+++ b/app/results/classification_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Key Sections</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Objectives (25%)</t>
   </si>
   <si>
-    <t>Scope (25%)</t>
+    <t>Scope and Limitations (25%)</t>
   </si>
   <si>
     <t>Overall Total</t>
@@ -43,16 +43,13 @@
     <t>Interpretation</t>
   </si>
   <si>
-    <t>Concluded Result</t>
-  </si>
-  <si>
-    <t>Well Aligned</t>
+    <t>Final Decision</t>
+  </si>
+  <si>
+    <t>Basic Alignment</t>
   </si>
   <si>
     <t>CS</t>
-  </si>
-  <si>
-    <t>Weak Alignment</t>
   </si>
 </sst>
 </file>
@@ -120,7 +117,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -415,6 +433,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -432,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -443,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="C3">
-        <v>31.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -454,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="C4">
-        <v>31.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -465,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>21.25</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -476,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>120</v>
+        <v>66.25</v>
       </c>
       <c r="C6">
-        <v>62.5</v>
+        <v>54.375</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -505,6 +526,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A6:C6">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:C7">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C8">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
+      <formula>LEN(TRIM(A8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/results/classification_results.xlsx
+++ b/app/results/classification_results.xlsx
@@ -453,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>12.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>21.25</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>16.875</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>66.25</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>54.375</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
